--- a/Rat_summary.xlsx
+++ b/Rat_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomasz\Desktop\DATABASE ONLINE PAPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114044E3-91A0-4C8A-90F2-F7CBAEC59A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD5EFB-FBED-4121-946A-323FF5CBB676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{C5D2C88A-3B33-4612-88E6-7790C9FFE1B5}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>https://www.biorxiv.org/content/10.1101/2025.01.15.633145v1</t>
   </si>
   <si>
-    <t>240 + 143</t>
+    <t>(240 + 143)</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -107,6 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,12 +425,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,7 +450,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>716</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -459,7 +461,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -470,7 +472,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>710</v>
       </c>
       <c r="C4" s="2" t="s">
